--- a/outputs-GTDB-r202/o__UBA9983_A.xlsx
+++ b/outputs-GTDB-r202/o__UBA9983_A.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>f__Zambryskibacteraceae</t>
+          <t>f__Zambryskibacteraceae(reject)</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>f__21-14-all-36-13</t>
+          <t>f__21-14-all-36-13(reject)</t>
         </is>
       </c>
     </row>
